--- a/Docs/[明磊软件]自动化测试用例模板.xlsx
+++ b/Docs/[明磊软件]自动化测试用例模板.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XiangFa_Automated_Testing\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>变更记录</t>
   </si>
@@ -108,55 +103,26 @@
     <t>登录成功跳转到“我的”功能页面</t>
   </si>
   <si>
-    <t>Auto_mlrc_Personinfo_002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto_mlrc_HouseInfo_003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存个人信息页面成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存房产信息页面成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存个人信息页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存房产信息页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>房产信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 输入各个字段的字段值
-2.点击保存按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
+    <t>Auto_qwa_infor_002</t>
+  </si>
+  <si>
+    <t>6666668888888888</t>
+  </si>
+  <si>
+    <t>Auto_qwa_infor_003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,13 +152,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,7 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,8 +327,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -398,15 +688,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -416,6 +954,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -425,9 +966,48 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -437,59 +1017,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -497,28 +1084,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -540,7 +1112,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -846,7 +1418,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -856,232 +1429,233 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15">
+      <c r="A4" s="21">
         <v>42858</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="6" max="6" width="29.875" customWidth="1"/>
     <col min="7" max="7" width="31.875" customWidth="1"/>
@@ -1126,171 +1700,148 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46.5" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" ht="46.5" customHeight="1" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="83.25" customHeight="1">
-      <c r="A3" s="2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" ht="83.25" customHeight="1" spans="1:12">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="b">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="81.75" customHeight="1">
-      <c r="A4" s="2">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" ht="81.75" customHeight="1" spans="1:12">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="90" customHeight="1" spans="1:12">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="90" customHeight="1">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:L6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="K3:K5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1302,13 +1853,15 @@
       <formula1>"P,F"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1317,8 +1870,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>